--- a/External Data/reports/2015_termination_data.xlsx
+++ b/External Data/reports/2015_termination_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TedSc\OneDrive\Desktop\R Projects\20221214_IN_ab_gest\IN_ab_gest\External_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TedSc\OneDrive\Desktop\R Projects\indiana_abortion\External Data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215F5F60-A136-4C7A-BD10-B24DE3FC9C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E46B750-7B97-4E6F-B5E3-B441FF1D35B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="821" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1180" yWindow="235" windowWidth="14460" windowHeight="9925" tabRatio="821" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2015_age" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="2015_gestation" sheetId="8" r:id="rId8"/>
     <sheet name="2015_gestation_procedure" sheetId="9" r:id="rId9"/>
     <sheet name="2015_county" sheetId="10" r:id="rId10"/>
+    <sheet name="2015_monthly" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="181">
   <si>
     <t>Count</t>
   </si>
@@ -543,6 +544,48 @@
   </si>
   <si>
     <t>Dilation Evacuation</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Non-Resident Terminations Month Resident Terminations</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
   </si>
 </sst>
 </file>
@@ -1414,13 +1457,13 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="9"/>
     <col min="3" max="3" width="8.7265625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="9" t="s">
         <v>159</v>
       </c>
@@ -1431,7 +1474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" s="9" t="s">
         <v>47</v>
       </c>
@@ -1442,7 +1485,7 @@
         <v>0.31418876460977752</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -1453,7 +1496,7 @@
         <v>2.7522935779816518</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -1464,7 +1507,7 @@
         <v>7.5656654518034436</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
@@ -1475,7 +1518,7 @@
         <v>33.756440869674499</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -1486,7 +1529,7 @@
         <v>26.530099283649616</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
@@ -1497,7 +1540,7 @@
         <v>16.073897197436221</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -1508,7 +1551,7 @@
         <v>9.8026894558250603</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
@@ -1519,7 +1562,7 @@
         <v>3.0539147920070375</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" s="9" t="s">
         <v>146</v>
       </c>
@@ -1530,7 +1573,7 @@
         <v>0.15081060701269322</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C19" s="4"/>
     </row>
   </sheetData>
@@ -1547,9 +1590,9 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1569,7 +1612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -1589,7 +1632,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1609,7 +1652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1629,7 +1672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1649,7 +1692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1669,7 +1712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -1689,7 +1732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -1709,7 +1752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -1729,7 +1772,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -1749,7 +1792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -1769,7 +1812,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -1789,7 +1832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -1809,7 +1852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -1829,7 +1872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -1849,7 +1892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -1869,7 +1912,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -1889,7 +1932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -1909,7 +1952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>105</v>
       </c>
@@ -1929,7 +1972,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>108</v>
       </c>
@@ -1949,7 +1992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -1969,7 +2012,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -1989,7 +2032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -2009,7 +2052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>120</v>
       </c>
@@ -2029,7 +2072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -2049,7 +2092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -2069,7 +2112,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>129</v>
       </c>
@@ -2089,7 +2132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>132</v>
       </c>
@@ -2109,7 +2152,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -2129,7 +2172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -2149,7 +2192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>139</v>
       </c>
@@ -2167,6 +2210,161 @@
       </c>
       <c r="F31" s="1">
         <v>7487</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C023CC-0F6C-493D-9CDC-74CF8D6B2AFF}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2">
+        <v>753</v>
+      </c>
+      <c r="C2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3">
+        <v>703</v>
+      </c>
+      <c r="C3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4">
+        <v>670</v>
+      </c>
+      <c r="C4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5">
+        <v>657</v>
+      </c>
+      <c r="C5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6">
+        <v>681</v>
+      </c>
+      <c r="C6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7">
+        <v>644</v>
+      </c>
+      <c r="C7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8">
+        <v>621</v>
+      </c>
+      <c r="C8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9">
+        <v>527</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10">
+        <v>581</v>
+      </c>
+      <c r="C10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11">
+        <v>592</v>
+      </c>
+      <c r="C11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12">
+        <v>504</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13">
+        <v>554</v>
+      </c>
+      <c r="C13">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2182,12 +2380,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2198,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2209,7 +2407,7 @@
         <v>57.12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2220,7 +2418,7 @@
         <v>30.11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2231,7 +2429,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2242,7 +2440,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2253,7 +2451,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2264,7 +2462,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>145</v>
       </c>
@@ -2275,14 +2473,14 @@
         <v>7.78</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="4"/>
     </row>
   </sheetData>
@@ -2298,12 +2496,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2314,7 +2512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2325,7 +2523,7 @@
         <v>8.09</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2336,12 +2534,12 @@
         <v>91.91</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="4"/>
     </row>
   </sheetData>
@@ -2357,13 +2555,13 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="27.6328125" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -2374,7 +2572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -2385,7 +2583,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2396,7 +2594,7 @@
         <v>7.98</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2407,7 +2605,7 @@
         <v>40.54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2418,7 +2616,7 @@
         <v>29.32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>142</v>
       </c>
@@ -2429,7 +2627,7 @@
         <v>4.9400000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>143</v>
       </c>
@@ -2440,7 +2638,7 @@
         <v>12.06</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>144</v>
       </c>
@@ -2451,7 +2649,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2462,7 +2660,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2473,7 +2671,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="8"/>
     </row>
   </sheetData>
@@ -2486,17 +2684,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="24.90625" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -2507,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -2518,7 +2716,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>165</v>
       </c>
@@ -2529,7 +2727,7 @@
         <v>27.93</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2540,7 +2738,7 @@
         <v>71.8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -2551,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2562,7 +2760,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2573,10 +2771,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="C8"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="6"/>
     </row>
   </sheetData>
@@ -2593,13 +2791,13 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="49.1796875" customWidth="1"/>
     <col min="2" max="2" width="34.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>157</v>
       </c>
@@ -2613,7 +2811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -2627,7 +2825,7 @@
         <v>9.85</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -2641,7 +2839,7 @@
         <v>16.77</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>149</v>
       </c>
@@ -2655,7 +2853,7 @@
         <v>36.18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>150</v>
       </c>
@@ -2669,7 +2867,7 @@
         <v>10.33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" s="3" t="s">
         <v>151</v>
       </c>
@@ -2683,7 +2881,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" s="3" t="s">
         <v>152</v>
       </c>
@@ -2697,7 +2895,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -2711,7 +2909,7 @@
         <v>7.26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" s="3" t="s">
         <v>148</v>
       </c>
@@ -2725,7 +2923,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2739,7 +2937,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" s="10" t="s">
         <v>147</v>
       </c>
@@ -2753,12 +2951,12 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="4"/>
     </row>
   </sheetData>
@@ -2774,14 +2972,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="15.08984375" customWidth="1"/>
     <col min="3" max="3" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -2795,7 +2993,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2806,7 +3004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -2817,7 +3015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -2828,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
@@ -2839,7 +3037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="4"/>
     </row>
   </sheetData>
@@ -2855,12 +3053,12 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="9" t="s">
         <v>153</v>
       </c>
@@ -2871,7 +3069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" s="9" t="s">
         <v>46</v>
       </c>
@@ -2882,7 +3080,7 @@
         <v>80.209999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="9" t="s">
         <v>47</v>
       </c>
@@ -2893,7 +3091,7 @@
         <v>19.57</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" s="9" t="s">
         <v>48</v>
       </c>
@@ -2904,7 +3102,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" s="9" t="s">
         <v>49</v>
       </c>
@@ -2915,7 +3113,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" s="9" t="s">
         <v>50</v>
       </c>
@@ -2939,7 +3137,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="2" width="10.6328125" customWidth="1"/>
     <col min="3" max="3" width="8.453125" customWidth="1"/>
@@ -2948,7 +3146,7 @@
     <col min="6" max="6" width="9.54296875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A1" s="9" t="s">
         <v>160</v>
       </c>
@@ -2966,7 +3164,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" s="9" t="s">
         <v>46</v>
       </c>
@@ -2983,7 +3181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" s="9" t="s">
         <v>47</v>
       </c>
@@ -3000,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" s="9" t="s">
         <v>48</v>
       </c>
@@ -3017,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" s="9" t="s">
         <v>49</v>
       </c>
@@ -3034,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" s="10" t="s">
         <v>50</v>
       </c>
@@ -3051,11 +3249,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" s="9"/>
       <c r="D9"/>
       <c r="F9"/>
